--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
@@ -12,15 +12,15 @@
     <sheet name="HiddenDropdowns" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="person" sheetId="4" r:id="rId4"/>
     <sheet name="sample" sheetId="5" r:id="rId5"/>
-    <sheet name="file" sheetId="6" r:id="rId6"/>
-    <sheet name="imaging_protocol" sheetId="7" r:id="rId7"/>
+    <sheet name="imaging_protocol" sheetId="6" r:id="rId6"/>
+    <sheet name="file" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="488">
   <si>
     <t>key</t>
   </si>
@@ -43,10 +43,10 @@
     <t>version_dwc_stx_fish</t>
   </si>
   <si>
-    <t>Spatial Transcriptomics Fish [Darwin Core (DwC)]</t>
-  </si>
-  <si>
-    <t>TBC dwc_stx_fish</t>
+    <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Darwin Core (DwC)]</t>
+  </si>
+  <si>
+    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH) to study gene expression patterns within intact tissues, adhering to Darwin Core (DwC) standards for biodiversity data transmission.</t>
   </si>
   <si>
     <t>dwc</t>
@@ -64,12 +64,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>bibliographicCitation</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
     <t>workflow</t>
   </si>
   <si>
@@ -88,36 +82,12 @@
     <t>e.g. Study of single cells in the human body</t>
   </si>
   <si>
-    <t>A detailed description of the project which includes research goals and experimental approach. Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
-  </si>
-  <si>
-    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behavior. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
-  </si>
-  <si>
-    <t>A citation for the study resource, following a standard format.</t>
-  </si>
-  <si>
-    <t>e.g. Doe J., et al. (2024). Single Cell Transcriptomic Analysis of Human Liver Cells. Journal of Cellular Biology.</t>
-  </si>
-  <si>
-    <t>The date when the study was created or registered.</t>
-  </si>
-  <si>
-    <t>e.g. 2024-10-14</t>
-  </si>
-  <si>
     <t>The workflow or protocol followed during the study.</t>
   </si>
   <si>
     <t>e.g. spatial_transcriptomics</t>
   </si>
   <si>
-    <t>The sorting or visualisation technology used.</t>
-  </si>
-  <si>
-    <t>e.g. Vizgen</t>
-  </si>
-  <si>
     <t>FILL OUT INFORMATION BELOW THIS ROW</t>
   </si>
   <si>
@@ -145,12 +115,18 @@
     <t>Spatial Transcriptomics</t>
   </si>
   <si>
+    <t>orcid_id</t>
+  </si>
+  <si>
     <t>givenName</t>
   </si>
   <si>
     <t>familyName</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>affiliation</t>
   </si>
   <si>
@@ -160,25 +136,43 @@
     <t>funding</t>
   </si>
   <si>
+    <t>orcid_id (optional)</t>
+  </si>
+  <si>
+    <t>email (optional)</t>
+  </si>
+  <si>
     <t>funder (optional)</t>
   </si>
   <si>
     <t>funding (optional)</t>
   </si>
   <si>
-    <t>The first name of a Person.</t>
+    <t>A 16-digit number that uniquely identify researchers.</t>
+  </si>
+  <si>
+    <t>e.g. 0000-1234-5678-9012</t>
+  </si>
+  <si>
+    <t>A first name (or given name) is the personal name given to an individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Jane</t>
   </si>
   <si>
-    <t>The last name of a Person.</t>
+    <t>A last name (or surname) is the family name passed down from one generation to the next for the individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Doe</t>
   </si>
   <si>
-    <t>An organization that this person is affiliated with. For example, a school/university, a club, or a team.</t>
+    <t>A unique identifier used to send and receive electronic messages (emails) over the internet.</t>
+  </si>
+  <si>
+    <t>e.g. jane.doe@example.com</t>
+  </si>
+  <si>
+    <t>An organisation or institution that this person is associated with.</t>
   </si>
   <si>
     <t>e.g. University of Liverpool</t>
@@ -190,7 +184,7 @@
     <t>e.g. BBSRC</t>
   </si>
   <si>
-    <t>A Grant that directly or indirectly provide funding or sponsorship for this item.</t>
+    <t>A grant that directly or indirectly provides funding or sponsorship for the person to conduct the study.</t>
   </si>
   <si>
     <t>e.g. GRAK3489</t>
@@ -229,9 +223,6 @@
     <t>materialSourceID</t>
   </si>
   <si>
-    <t>accession_number</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
@@ -454,9 +445,6 @@
     <t>materialSourceID (optional)</t>
   </si>
   <si>
-    <t>accession_number (optional)</t>
-  </si>
-  <si>
     <t>class (optional)</t>
   </si>
   <si>
@@ -712,12 +700,6 @@
     <t>e.g. JIC GRU WM0013</t>
   </si>
   <si>
-    <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
-  </si>
-  <si>
-    <t>e.g. accession123</t>
-  </si>
-  <si>
     <t>The full scientific name of the class in which the dwc:Taxon is classified.</t>
   </si>
   <si>
@@ -775,7 +757,7 @@
     <t>The date on which the subject was determined as representing the dwc:Taxon.</t>
   </si>
   <si>
-    <t>e.g. 1963-03-08T14: 07-0600</t>
+    <t>e.g. 1963-03-08T14:07</t>
   </si>
   <si>
     <t>The current state of a specimen with respect to the collection identified in dwc:collectionCode or dwc:collectionID.</t>
@@ -1321,190 +1303,187 @@
     <t>Whole Plant</t>
   </si>
   <si>
+    <t>imaging_protocol_id</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>target_probe_code</t>
+  </si>
+  <si>
+    <t>section_thickness_µm</t>
+  </si>
+  <si>
+    <t>section_thickness_method</t>
+  </si>
+  <si>
+    <t>section_thickness_temperature</t>
+  </si>
+  <si>
+    <t>is_pathological</t>
+  </si>
+  <si>
+    <t>photobleaching_duration_in_hours</t>
+  </si>
+  <si>
+    <t>clearing_with_proteinasek</t>
+  </si>
+  <si>
+    <t>clearing_without_proteinasek</t>
+  </si>
+  <si>
+    <t>instrument_user_guide</t>
+  </si>
+  <si>
+    <t>instrument_user_guide_revision</t>
+  </si>
+  <si>
+    <t>sample_preparation_guide</t>
+  </si>
+  <si>
+    <t>sample_preparation_guide_revision</t>
+  </si>
+  <si>
+    <t>deviations_from_official_protocol</t>
+  </si>
+  <si>
+    <t>section_thickness_µm (optional)</t>
+  </si>
+  <si>
+    <t>section_thickness_method (optional)</t>
+  </si>
+  <si>
+    <t>section_thickness_temperature (optional)</t>
+  </si>
+  <si>
+    <t>is_pathological (optional)</t>
+  </si>
+  <si>
+    <t>photobleaching_duration_in_hours (optional)</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric identifier for the imaging protocol.</t>
+  </si>
+  <si>
+    <t>e.g. img123</t>
+  </si>
+  <si>
+    <t>The platform used to isolate the cells.</t>
+  </si>
+  <si>
+    <t>e.g. Illumina NovaSeq</t>
+  </si>
+  <si>
+    <t>The instrument used to isolate the cells.</t>
+  </si>
+  <si>
+    <t>e.g. Illumina NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>The type of probes used to detect and quantify specific RNA molecules in their native spatial context within a tissue or cell.</t>
+  </si>
+  <si>
+    <t>e.g. Oligo-dT</t>
+  </si>
+  <si>
+    <t>The thickness of the tissue section in micrometres.</t>
+  </si>
+  <si>
+    <t>e.g. 10</t>
+  </si>
+  <si>
+    <t>The method used to measure tissue section thickness.</t>
+  </si>
+  <si>
+    <t>e.g. Microtome</t>
+  </si>
+  <si>
+    <t>The temperature at which the section was made in degree celsius.</t>
+  </si>
+  <si>
+    <t>e.g. 22</t>
+  </si>
+  <si>
+    <t>A quality inhering in a bearer by virtue of the bearer's being abnormal and having a destructive effect on living tissue.</t>
+  </si>
+  <si>
+    <t>e.g. No</t>
+  </si>
+  <si>
+    <t>The duration of photobleaching in hours</t>
+  </si>
+  <si>
+    <t>e.g. 2</t>
+  </si>
+  <si>
+    <t>The duration of clearing at 47°C with Proteinase K.</t>
+  </si>
+  <si>
+    <t>e.g. 24 hrs</t>
+  </si>
+  <si>
+    <t>The duration of tissue clearing at 37°C without Proteinase K.</t>
+  </si>
+  <si>
+    <t>e.g. 4.5 days</t>
+  </si>
+  <si>
+    <t>The user guide for the instrument used.</t>
+  </si>
+  <si>
+    <t>e.g. User Guide</t>
+  </si>
+  <si>
+    <t>The revision of the instrument user guide.</t>
+  </si>
+  <si>
+    <t>e.g. 1.2</t>
+  </si>
+  <si>
+    <t>The guide used for sample preparation.</t>
+  </si>
+  <si>
+    <t>e.g. preparation_guide_v1.0.pdf</t>
+  </si>
+  <si>
+    <t>The revision of the sample preparation guide.</t>
+  </si>
+  <si>
+    <t>e.g. 1.0</t>
+  </si>
+  <si>
+    <t>Any deviations from the official protocol. Separate individual deviations with '|'.</t>
+  </si>
+  <si>
+    <t>e.g. Temperature exceeded 25°C during storage | Sample handling delayed by 2 hours</t>
+  </si>
+  <si>
     <t>file_id</t>
   </si>
   <si>
-    <t>imaging_protocol_id</t>
-  </si>
-  <si>
     <t>file_name</t>
   </si>
   <si>
     <t>file_type</t>
   </si>
   <si>
-    <t>centroidX</t>
-  </si>
-  <si>
-    <t>centroidY</t>
-  </si>
-  <si>
-    <t>centroidX (optional)</t>
-  </si>
-  <si>
-    <t>centroidY (optional)</t>
-  </si>
-  <si>
     <t>A unique alphanumeric identifier for this file</t>
   </si>
   <si>
-    <t>A unique alphanumeric identifier for the imaging protocol.</t>
-  </si>
-  <si>
-    <t>e.g. img123</t>
-  </si>
-  <si>
     <t>A filename or file name is a name used to uniquely identify a data file related to the study.</t>
   </si>
   <si>
     <t>e.g. file001</t>
   </si>
   <si>
-    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, etc.</t>
+    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, archive etc.</t>
   </si>
   <si>
     <t>e.g. fastq</t>
-  </si>
-  <si>
-    <t>X Coordinate of the approximate center pixel for this sample</t>
-  </si>
-  <si>
-    <t>e.g. 450</t>
-  </si>
-  <si>
-    <t>Y Coordinate of the approximate center pixel for this sample</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>instrument</t>
-  </si>
-  <si>
-    <t>target_probes</t>
-  </si>
-  <si>
-    <t>section_thickness_µm</t>
-  </si>
-  <si>
-    <t>section_thickness_method</t>
-  </si>
-  <si>
-    <t>section_thickness_temperature</t>
-  </si>
-  <si>
-    <t>is_pathological</t>
-  </si>
-  <si>
-    <t>photobleaching_duration_in_hours</t>
-  </si>
-  <si>
-    <t>instrument_user_guide</t>
-  </si>
-  <si>
-    <t>instrument_user_guide_revision</t>
-  </si>
-  <si>
-    <t>sample_preparation_guide</t>
-  </si>
-  <si>
-    <t>sample_preparation_guide_revision</t>
-  </si>
-  <si>
-    <t>deviations_from_official_protocol</t>
-  </si>
-  <si>
-    <t>section_thickness_µm (optional)</t>
-  </si>
-  <si>
-    <t>section_thickness_method (optional)</t>
-  </si>
-  <si>
-    <t>section_thickness_temperature (optional)</t>
-  </si>
-  <si>
-    <t>is_pathological (optional)</t>
-  </si>
-  <si>
-    <t>photobleaching_duration_in_hours (optional)</t>
-  </si>
-  <si>
-    <t>The platform used to isolate the cells.</t>
-  </si>
-  <si>
-    <t>e.g. Illumina NovaSeq</t>
-  </si>
-  <si>
-    <t>The instrument used to isolate the cells.</t>
-  </si>
-  <si>
-    <t>e.g. Illumina NovaSeq 6000</t>
-  </si>
-  <si>
-    <t>The type of probes used to detect and quantify specific RNA molecules in their native spatial context within a tissue or cell.</t>
-  </si>
-  <si>
-    <t>e.g. Oligo-dT</t>
-  </si>
-  <si>
-    <t>The thickness of the tissue section in micrometres.</t>
-  </si>
-  <si>
-    <t>e.g. 10</t>
-  </si>
-  <si>
-    <t>The method used to measure tissue section thickness.</t>
-  </si>
-  <si>
-    <t>e.g. Microtome</t>
-  </si>
-  <si>
-    <t>The temperature at which the section was made in degree celsius.</t>
-  </si>
-  <si>
-    <t>e.g. 22</t>
-  </si>
-  <si>
-    <t>A quality inhering in a bearer by virtue of the bearer's being abnormal and having a destructive effect on living tissue.</t>
-  </si>
-  <si>
-    <t>e.g. No</t>
-  </si>
-  <si>
-    <t>The duration of photobleaching in hours</t>
-  </si>
-  <si>
-    <t>e.g. 2</t>
-  </si>
-  <si>
-    <t>The user guide for the instrument used.</t>
-  </si>
-  <si>
-    <t>e.g. User Guide</t>
-  </si>
-  <si>
-    <t>The revision of the instrument user guide.</t>
-  </si>
-  <si>
-    <t>e.g. 1.2</t>
-  </si>
-  <si>
-    <t>The guide used for sample preparation.</t>
-  </si>
-  <si>
-    <t>e.g. preparation_guide_v1.0.pdf</t>
-  </si>
-  <si>
-    <t>The revision of the sample preparation guide.</t>
-  </si>
-  <si>
-    <t>e.g. 1.0</t>
-  </si>
-  <si>
-    <t>Any deviations from the official protocol. Separate individual deviations with '|'.</t>
-  </si>
-  <si>
-    <t>e.g. Temperature exceeded 25°C during storage | Sample handling delayed by 2 hours</t>
   </si>
 </sst>
 </file>
@@ -1896,8 +1875,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="178.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1944,14 +1923,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EF1E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D869" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1959,109 +1938,62 @@
   <cols>
     <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="116.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A9FB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9F00" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:G4">
+  <conditionalFormatting sqref="A1:C4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="G5:G1005">
-      <formula1>"10X,10X 3',Mas Seq,Smartseq,Vizgen"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="C5:C1005">
+      <formula1>HiddenDropdowns!$C$5:$C$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2070,413 +2002,413 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E5:F79"/>
+  <dimension ref="C5:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6">
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>358</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="5:6">
-      <c r="E6" t="s">
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>359</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6">
-      <c r="E7" t="s">
+    </row>
+    <row r="13" spans="3:5">
+      <c r="E13" t="s">
         <v>360</v>
       </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" t="s">
+    </row>
+    <row r="14" spans="3:5">
+      <c r="E14" t="s">
         <v>361</v>
       </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" t="s">
+    </row>
+    <row r="15" spans="3:5">
+      <c r="E15" t="s">
         <v>362</v>
       </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" t="s">
+    </row>
+    <row r="16" spans="3:5">
+      <c r="E16" t="s">
         <v>363</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6">
-      <c r="E11" t="s">
-        <v>364</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" t="s">
-        <v>365</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6">
-      <c r="E14" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -2486,85 +2418,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF1B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F2DF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="A1:H4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2575,7 +2540,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY4"/>
+  <dimension ref="A1:BX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2591,775 +2556,765 @@
     <col min="10" max="10" width="42.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="146" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="109.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="97.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="64.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="57.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="64.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="143.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="79" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="105" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="102.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="91.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="60.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="67.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="121.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="115.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="52.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="64.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="77.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="63.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="161.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="60.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="77.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="151.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="83.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="101.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="110.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="46.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="59.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="68.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="124.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="104" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="41.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="129.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="252.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="242.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="40" style="4" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="244.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="167" style="4" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="95.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="86.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="88.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="64.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="99.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="64.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="143.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="79" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="105" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="70.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="102.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="91.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="60.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="67.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="121.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="115.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="52.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="64.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="77.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="63.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="161.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="60.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="77.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="151.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="83.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="101.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="110.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="46.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="59.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="68.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="124.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="104" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="41.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="129.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="252.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="242.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="40" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="244.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="167" style="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="95.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="86.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="88.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:76">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BV1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:76">
+      <c r="A2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:77">
-      <c r="A2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW3" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="BB3" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="BA2" s="5" t="s">
+      <c r="BC3" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="BB2" s="5" t="s">
+      <c r="BD3" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="BC2" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BE3" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="BH3" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="BI3" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="BJ3" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="BL3" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="BK2" s="5" t="s">
+      <c r="BM3" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="BL2" s="5" t="s">
+      <c r="BN3" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="BM2" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="BP2" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="BU2" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="BV2" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="BX2" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="BY2" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:77">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="BA3" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="BB3" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="BC3" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="BE3" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="BG3" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="BI3" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="BJ3" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="BK3" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BL3" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BM3" s="5" t="s">
+      <c r="BO3" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="BN3" s="5" t="s">
+      <c r="BP3" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="BO3" s="5" t="s">
+      <c r="BQ3" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="BP3" s="5" t="s">
+      <c r="BR3" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="BQ3" s="5" t="s">
+      <c r="BS3" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="BR3" s="5" t="s">
+      <c r="BT3" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="BS3" s="5" t="s">
+      <c r="BU3" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="BT3" s="5" t="s">
+      <c r="BV3" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="BU3" s="5" t="s">
+      <c r="BW3" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="BV3" s="5" t="s">
+      <c r="BX3" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="BW3" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="BX3" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="BY3" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:77">
+    </row>
+    <row r="4" spans="1:76">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3436,14 +3391,13 @@
       <c r="BV4" s="6"/>
       <c r="BW4" s="6"/>
       <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B260" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DF85" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:BY4"/>
+    <mergeCell ref="A4:BX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:BY4">
+  <conditionalFormatting sqref="A1:BX4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -3455,10 +3409,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="X5:X1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="W5:W1005">
       <formula1>"Deaccessioned,Destroyed,In Collection,Missing,On Loan,Used Up"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AW5:AW1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AV5:AV1005">
       <formula1>"Fruit-Bearing,In Bloom,Non-Reproductive,Pregnant"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3468,118 +3422,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="88.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.28515625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="E19F" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A4:G4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:G4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(A1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3595,157 +3438,177 @@
     <col min="8" max="8" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="104.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="76.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="76.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3761,13 +3624,15 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DDD6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA71" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:Q4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:O4">
+  <conditionalFormatting sqref="A1:Q4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -3779,4 +3644,93 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="CC42" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:E4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
@@ -1923,7 +1923,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D869" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B4C" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1982,7 +1982,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9F00" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C5C2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2525,7 +2525,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F2DF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FEEC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3393,7 +3393,7 @@
       <c r="BX4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF85" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B3F3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BX4"/>
   </mergeCells>
@@ -3628,7 +3628,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA71" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FC07" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -3722,7 +3722,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC42" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE99" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
@@ -1923,7 +1923,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8B4C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E278" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1982,7 +1982,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C5C2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D0F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2525,7 +2525,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FEEC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9540" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3393,7 +3393,7 @@
       <c r="BX4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B3F3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AE2B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BX4"/>
   </mergeCells>
@@ -3628,7 +3628,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FC07" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B829" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -3722,7 +3722,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE99" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="98B4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="487">
   <si>
     <t>key</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Darwin Core (DwC)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH) to study gene expression patterns within intact tissues, adhering to Darwin Core (DwC) standards for biodiversity data transmission.</t>
+    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), adhering to Darwin Core (DwC) standards for describing biodiversity related features.</t>
   </si>
   <si>
     <t>dwc</t>
@@ -196,9 +196,6 @@
     <t>scientificName</t>
   </si>
   <si>
-    <t>organism</t>
-  </si>
-  <si>
     <t>tissue</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
     <t>scientificName (optional)</t>
   </si>
   <si>
-    <t>organism (optional)</t>
-  </si>
-  <si>
     <t>tissue (optional)</t>
   </si>
   <si>
@@ -1157,6 +1151,9 @@
   </si>
   <si>
     <t>Holdfast Fungi</t>
+  </si>
+  <si>
+    <t>Inflorescence</t>
   </si>
   <si>
     <t>Intestine</t>
@@ -1876,7 +1873,7 @@
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="178.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1923,7 +1920,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E278" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F171" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1982,7 +1979,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9D0F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF27" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2002,413 +1999,418 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:E79"/>
+  <dimension ref="C5:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5">
+      <c r="D5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
+      <c r="D7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
+      <c r="D8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
+      <c r="D9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
+      <c r="D10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
+      <c r="D11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="D13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="D14" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="E13" t="s">
+    <row r="15" spans="3:4">
+      <c r="D15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
-      <c r="E14" t="s">
+    <row r="16" spans="3:4">
+      <c r="D16" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
-      <c r="E15" t="s">
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
-      <c r="E16" t="s">
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
-      <c r="E17" t="s">
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
-      <c r="E18" t="s">
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" t="s">
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
-      <c r="E20" t="s">
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
-      <c r="E21" t="s">
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="5:5">
-      <c r="E22" t="s">
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
-      <c r="E23" t="s">
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="5:5">
-      <c r="E24" t="s">
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="5:5">
-      <c r="E25" t="s">
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
-      <c r="E26" t="s">
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
-      <c r="E27" t="s">
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
-      <c r="E28" t="s">
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="5:5">
-      <c r="E29" t="s">
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="5:5">
-      <c r="E30" t="s">
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="5:5">
-      <c r="E31" t="s">
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="5:5">
-      <c r="E32" t="s">
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="5:5">
-      <c r="E33" t="s">
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="5:5">
-      <c r="E34" t="s">
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="5:5">
-      <c r="E35" t="s">
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="5:5">
-      <c r="E36" t="s">
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="5:5">
-      <c r="E37" t="s">
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="5:5">
-      <c r="E38" t="s">
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="5:5">
-      <c r="E39" t="s">
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="5:5">
-      <c r="E40" t="s">
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="5:5">
-      <c r="E41" t="s">
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="5:5">
-      <c r="E42" t="s">
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="5:5">
-      <c r="E43" t="s">
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="5:5">
-      <c r="E44" t="s">
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="45" spans="5:5">
-      <c r="E45" t="s">
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="5:5">
-      <c r="E46" t="s">
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="5:5">
-      <c r="E47" t="s">
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="5:5">
-      <c r="E48" t="s">
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="5:5">
-      <c r="E49" t="s">
+    <row r="51" spans="4:4">
+      <c r="D51" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="5:5">
-      <c r="E50" t="s">
+    <row r="52" spans="4:4">
+      <c r="D52" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="5:5">
-      <c r="E51" t="s">
+    <row r="53" spans="4:4">
+      <c r="D53" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="5:5">
-      <c r="E52" t="s">
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
-      <c r="E53" t="s">
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="5:5">
-      <c r="E54" t="s">
+    <row r="56" spans="4:4">
+      <c r="D56" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="5:5">
-      <c r="E55" t="s">
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="5:5">
-      <c r="E56" t="s">
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="5:5">
-      <c r="E57" t="s">
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="5:5">
-      <c r="E58" t="s">
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="5:5">
-      <c r="E59" t="s">
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="5:5">
-      <c r="E60" t="s">
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="5:5">
-      <c r="E61" t="s">
+    <row r="63" spans="4:4">
+      <c r="D63" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="5:5">
-      <c r="E62" t="s">
+    <row r="64" spans="4:4">
+      <c r="D64" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="5:5">
-      <c r="E63" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="5:5">
-      <c r="E64" t="s">
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
-      <c r="E65" t="s">
+    <row r="67" spans="4:4">
+      <c r="D67" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="5:5">
-      <c r="E66" t="s">
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="5:5">
-      <c r="E67" t="s">
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="5:5">
-      <c r="E68" t="s">
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="5:5">
-      <c r="E69" t="s">
+    <row r="71" spans="4:4">
+      <c r="D71" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="5:5">
-      <c r="E70" t="s">
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="71" spans="5:5">
-      <c r="E71" t="s">
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="5:5">
-      <c r="E72" t="s">
+    <row r="74" spans="4:4">
+      <c r="D74" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="5:5">
-      <c r="E73" t="s">
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="5:5">
-      <c r="E74" t="s">
+    <row r="76" spans="4:4">
+      <c r="D76" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="5:5">
-      <c r="E75" t="s">
+    <row r="77" spans="4:4">
+      <c r="D77" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="5:5">
-      <c r="E76" t="s">
+    <row r="78" spans="4:4">
+      <c r="D78" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="77" spans="5:5">
-      <c r="E77" t="s">
+    <row r="79" spans="4:4">
+      <c r="D79" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="78" spans="5:5">
-      <c r="E78" t="s">
+    <row r="80" spans="4:4">
+      <c r="D80" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="79" spans="5:5">
-      <c r="E79" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2527,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9540" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B25C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2540,89 +2542,89 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX4"/>
+  <dimension ref="A1:BW4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="54.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="42" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="183.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="146" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="109.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="64.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="99.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="64.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="143.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="79" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="105" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="70.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="102.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="91.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="60.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="67.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="121.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="115.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="52.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="64.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="77.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="63.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="161.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="60.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="77.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="151.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="83.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="101.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="110.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="46.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="59.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="68.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="124.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="104" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="41.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="129.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="252.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="242.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="40" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="244.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="167" style="4" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="95.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="86.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="88.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="183.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="146" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="109.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="99.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="64.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="143.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="79" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="105" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="70.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="102.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="91.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="60.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="67.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="121.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="115.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="52.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="64.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="77.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="63.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="161.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="60.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="77.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="151.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="83.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="101.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="110.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="46.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="59.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="68.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="124.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="104" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="41.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="129.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="252.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="242.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="40" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="244.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="167" style="4" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="95.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="86.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="88.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:75">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2630,237 +2632,234 @@
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BW1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:75">
+      <c r="A2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:76">
-      <c r="A2" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>208</v>
@@ -3010,7 +3009,7 @@
         <v>304</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BB2" s="5" t="s">
         <v>307</v>
@@ -3040,7 +3039,7 @@
         <v>323</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BL2" s="5" t="s">
         <v>326</v>
@@ -3078,19 +3077,16 @@
       <c r="BW2" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="BX2" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:76">
+    </row>
+    <row r="3" spans="1:75">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>209</v>
@@ -3237,10 +3233,10 @@
         <v>303</v>
       </c>
       <c r="AZ3" s="5" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="BB3" s="5" t="s">
         <v>308</v>
@@ -3267,10 +3263,10 @@
         <v>322</v>
       </c>
       <c r="BJ3" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BK3" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BL3" s="5" t="s">
         <v>327</v>
@@ -3308,11 +3304,8 @@
       <c r="BW3" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="BX3" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:76">
+    </row>
+    <row r="4" spans="1:75">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -3390,29 +3383,28 @@
       <c r="BU4" s="6"/>
       <c r="BV4" s="6"/>
       <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AE2B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F1F7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:BX4"/>
+    <mergeCell ref="A4:BW4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:BX4">
+  <conditionalFormatting sqref="A1:BW4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+      <formula1>HiddenDropdowns!$D$5:$D$80</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
-      <formula1>HiddenDropdowns!$E$5:$E$79</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="W5:W1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="V5:V1005">
       <formula1>"Deaccessioned,Destroyed,In Collection,Missing,On Loan,Used Up"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AV5:AV1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AU5:AU1005">
       <formula1>"Fruit-Bearing,In Bloom,Non-Reproductive,Pregnant"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3452,52 +3444,52 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3505,52 +3497,52 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3558,52 +3550,52 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3628,7 +3620,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B829" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F814" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -3666,16 +3658,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3683,16 +3675,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3700,16 +3692,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3722,7 +3714,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="98B4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A949" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
@@ -1920,7 +1920,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F171" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE57" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1979,7 +1979,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF27" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D20C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2527,7 +2527,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B25C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="98CE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3385,7 +3385,7 @@
       <c r="BW4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F1F7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="81E1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BW4"/>
   </mergeCells>
@@ -3620,7 +3620,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F814" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F330" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -3714,7 +3714,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A949" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E5EA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="517">
   <si>
     <t>key</t>
   </si>
@@ -85,7 +85,7 @@
     <t>The workflow or protocol followed during the study.</t>
   </si>
   <si>
-    <t>e.g. spatial_transcriptomics</t>
+    <t>e.g. Laser microdissection</t>
   </si>
   <si>
     <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -1087,6 +1087,9 @@
     <t>Bodywall</t>
   </si>
   <si>
+    <t>Bone Marrow Hematopoietic Niches</t>
+  </si>
+  <si>
     <t>Bract</t>
   </si>
   <si>
@@ -1102,6 +1105,18 @@
     <t>Cephalothorax</t>
   </si>
   <si>
+    <t>Cortex Development In Roots</t>
+  </si>
+  <si>
+    <t>Developing Brain</t>
+  </si>
+  <si>
+    <t>Developing Embryo</t>
+  </si>
+  <si>
+    <t>Developing Seed Coat</t>
+  </si>
+  <si>
     <t>Dna Extract</t>
   </si>
   <si>
@@ -1111,6 +1126,9 @@
     <t>Eggshell</t>
   </si>
   <si>
+    <t>Embryonic Stem Cells</t>
+  </si>
+  <si>
     <t>Endocrine Tissue</t>
   </si>
   <si>
@@ -1123,12 +1141,30 @@
     <t>Fat Body</t>
   </si>
   <si>
+    <t>Fetal Heart</t>
+  </si>
+  <si>
+    <t>Fetal Kidney</t>
+  </si>
+  <si>
+    <t>Fetal Liver</t>
+  </si>
+  <si>
+    <t>Fetal Lung</t>
+  </si>
+  <si>
     <t>Fin</t>
   </si>
   <si>
+    <t>Floral Meristem</t>
+  </si>
+  <si>
     <t>Flower</t>
   </si>
   <si>
+    <t>Gastrulation-Stage Embryo</t>
+  </si>
+  <si>
     <t>Gill Animal</t>
   </si>
   <si>
@@ -1138,6 +1174,9 @@
     <t>Gonad</t>
   </si>
   <si>
+    <t>Gut</t>
+  </si>
+  <si>
     <t>Hair</t>
   </si>
   <si>
@@ -1153,6 +1192,9 @@
     <t>Holdfast Fungi</t>
   </si>
   <si>
+    <t>Hypocotyl</t>
+  </si>
+  <si>
     <t>Inflorescence</t>
   </si>
   <si>
@@ -1165,9 +1207,15 @@
     <t>Leaf</t>
   </si>
   <si>
+    <t>Leaf Primordia</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>Limb Bud</t>
+  </si>
+  <si>
     <t>Liver</t>
   </si>
   <si>
@@ -1195,6 +1243,15 @@
     <t>Mycorrhiza</t>
   </si>
   <si>
+    <t>Neonatal Retina</t>
+  </si>
+  <si>
+    <t>Neural Crest Cells</t>
+  </si>
+  <si>
+    <t>Nodules</t>
+  </si>
+  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -1204,6 +1261,9 @@
     <t>Not Provided</t>
   </si>
   <si>
+    <t>Olfactory Epithelium</t>
+  </si>
+  <si>
     <t>Other Fungal Tissue</t>
   </si>
   <si>
@@ -1222,18 +1282,36 @@
     <t>Oviduct</t>
   </si>
   <si>
+    <t>Ovule Primordium</t>
+  </si>
+  <si>
     <t>Pancreas</t>
   </si>
   <si>
     <t>Petiole</t>
   </si>
   <si>
+    <t>Placental Trophoblast Cells</t>
+  </si>
+  <si>
+    <t>Pollen Mother Cells</t>
+  </si>
+  <si>
     <t>Posterior Body</t>
   </si>
   <si>
+    <t>Postnatal Thymus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhizome Meristem </t>
+  </si>
+  <si>
     <t>Root</t>
   </si>
   <si>
+    <t>Root Apical Meristem</t>
+  </si>
+  <si>
     <t>Scales</t>
   </si>
   <si>
@@ -1249,9 +1327,15 @@
     <t>Shoot</t>
   </si>
   <si>
+    <t>Shoot Apical Meristem</t>
+  </si>
+  <si>
     <t>Skin</t>
   </si>
   <si>
+    <t>Somitic Mesoderm</t>
+  </si>
+  <si>
     <t>Sperm Seminal Fluid</t>
   </si>
   <si>
@@ -1291,9 +1375,15 @@
     <t>Thorax</t>
   </si>
   <si>
+    <t>Trichome Precursor Cells</t>
+  </si>
+  <si>
     <t>Unicellular Organisms In Culture</t>
   </si>
   <si>
+    <t>Vascular Cambium</t>
+  </si>
+  <si>
     <t>Whole Organism</t>
   </si>
   <si>
@@ -1315,7 +1405,7 @@
     <t>section_thickness_µm</t>
   </si>
   <si>
-    <t>section_thickness_method</t>
+    <t>section_thickness_measurement_method</t>
   </si>
   <si>
     <t>section_thickness_temperature</t>
@@ -1351,7 +1441,7 @@
     <t>section_thickness_µm (optional)</t>
   </si>
   <si>
-    <t>section_thickness_method (optional)</t>
+    <t>section_thickness_measurement_method (optional)</t>
   </si>
   <si>
     <t>section_thickness_temperature (optional)</t>
@@ -1920,7 +2010,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FE57" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B8E4" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1979,7 +2069,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D20C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B71F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -1999,14 +2089,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:D80"/>
+  <dimension ref="C5:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:4">
@@ -2411,6 +2501,156 @@
     <row r="80" spans="4:4">
       <c r="D80" t="s">
         <v>425</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +2767,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="98CE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9B36" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3385,7 +3625,7 @@
       <c r="BW4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="81E1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9843" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BW4"/>
   </mergeCells>
@@ -3396,7 +3636,7 @@
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
-      <formula1>HiddenDropdowns!$D$5:$D$80</formula1>
+      <formula1>HiddenDropdowns!$D$5:$D$110</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
@@ -3444,52 +3684,52 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3497,52 +3737,52 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3550,52 +3790,52 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3620,7 +3860,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F330" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ED7E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -3658,16 +3898,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3675,16 +3915,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3692,16 +3932,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3714,7 +3954,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E5EA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E6B6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
@@ -2010,7 +2010,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B8E4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BE53" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2069,7 +2069,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B71F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8769" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2767,7 +2767,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9B36" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF8E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3625,7 +3625,7 @@
       <c r="BW4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9843" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D9B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BW4"/>
   </mergeCells>
@@ -3860,7 +3860,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ED7E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C4F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -3954,7 +3954,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E6B6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BDE7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
@@ -2010,7 +2010,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="BE53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B59F" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2069,7 +2069,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8769" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9409" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2767,7 +2767,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF8E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A09F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3625,7 +3625,7 @@
       <c r="BW4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9D9B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AFBF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BW4"/>
   </mergeCells>
@@ -3860,7 +3860,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C4F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C533" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -3954,7 +3954,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BDE7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="908A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.1.xlsx
@@ -2010,7 +2010,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B59F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E316" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2069,7 +2069,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9409" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F8FD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2767,7 +2767,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A09F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="870A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3625,7 +3625,7 @@
       <c r="BW4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AFBF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E23D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BW4"/>
   </mergeCells>
@@ -3860,7 +3860,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C533" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C7F3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -3954,7 +3954,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="908A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EAAD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
